--- a/teamContributions.xlsx
+++ b/teamContributions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/22305319_studentmail_ul_ie/Documents/Year2/SEM1/CS4013/project-final/Infofile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A11ABBF-5F98-46C8-8CF9-BBA487BAC42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{9A11ABBF-5F98-46C8-8CF9-BBA487BAC42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DF1E6C4-A11A-4C25-AA45-987EF0B2E465}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
     <t>online-fix bug</t>
   </si>
   <si>
-    <t>Peile Li and Tianxing Fan</t>
+    <t>2023/11/21-2023/11/25</t>
   </si>
 </sst>
 </file>
@@ -236,21 +236,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -569,7 +572,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -583,24 +586,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
@@ -748,7 +751,7 @@
       <c r="B12" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>0.4</v>
       </c>
       <c r="D12" s="3">
@@ -965,7 +968,7 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="9">
+      <c r="A27" s="7">
         <v>45238</v>
       </c>
       <c r="B27" t="s">
@@ -980,7 +983,7 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="9">
+      <c r="A28" s="7">
         <v>45244</v>
       </c>
       <c r="B28" t="s">
@@ -995,7 +998,7 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="9">
+      <c r="A29" s="7">
         <v>45245</v>
       </c>
       <c r="B29" t="s">
@@ -1010,7 +1013,7 @@
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="9">
+      <c r="A30" s="7">
         <v>45247</v>
       </c>
       <c r="B30" t="s">
@@ -1025,7 +1028,7 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="9">
+      <c r="A31" s="7">
         <v>45250</v>
       </c>
       <c r="B31" t="s">
@@ -1040,19 +1043,16 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="9">
-        <v>45253</v>
+      <c r="A32" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="D32" t="s">
-        <v>39</v>
-      </c>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="9">
+      <c r="A33" s="7">
         <v>45257</v>
       </c>
       <c r="B33" t="s">
